--- a/設計書/01_基本設計（外部設計）/04_データベース設計/CRUD図.xlsx
+++ b/設計書/01_基本設計（外部設計）/04_データベース設計/CRUD図.xlsx
@@ -1647,186 +1647,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180" readingOrder="1"/>
     </xf>
@@ -1867,6 +1687,186 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1885,79 +1885,11 @@
     <cellStyle name="標準 9" xfId="13"/>
     <cellStyle name="標準_ｻﾝﾌﾟﾙ（画面）_共通命名規約" xfId="2"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1967,6 +1899,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3406588"/>
+          <a:ext cx="3653118" cy="2039470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>見直し中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2274,201 +2272,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="136" t="str">
+      <c r="A1" s="92" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="125" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="140" t="str">
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="97" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="125" t="s">
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125" t="s">
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125" t="s">
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125" t="s">
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="AY1" s="125"/>
-      <c r="AZ1" s="126"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="98"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="127" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="128" t="str">
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="100" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="129">
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="101">
         <v>42612</v>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="131" t="s">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="132"/>
-      <c r="AT2" s="132"/>
-      <c r="AU2" s="132"/>
-      <c r="AV2" s="132"/>
-      <c r="AW2" s="132"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="134"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="107"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118" t="str">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="104" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="117" t="s">
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="118" t="str">
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="104" t="str">
         <f>設定情報!$C$5</f>
         <v>CRUD図</v>
       </c>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="118"/>
-      <c r="AN3" s="118"/>
-      <c r="AO3" s="118"/>
-      <c r="AP3" s="118"/>
-      <c r="AQ3" s="118"/>
-      <c r="AR3" s="118"/>
-      <c r="AS3" s="133"/>
-      <c r="AT3" s="133"/>
-      <c r="AU3" s="133"/>
-      <c r="AV3" s="133"/>
-      <c r="AW3" s="133"/>
-      <c r="AX3" s="118"/>
-      <c r="AY3" s="118"/>
-      <c r="AZ3" s="135"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="104"/>
+      <c r="AR3" s="104"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="104"/>
+      <c r="AY3" s="104"/>
+      <c r="AZ3" s="108"/>
     </row>
     <row r="4" spans="1:52" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60"/>
@@ -2636,1098 +2634,1098 @@
     </row>
     <row r="7" spans="1:52" s="66" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="67"/>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="119" t="s">
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="119" t="s">
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="120"/>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="120"/>
-      <c r="AR7" s="120"/>
-      <c r="AS7" s="120"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="120"/>
-      <c r="AV7" s="120"/>
-      <c r="AW7" s="120"/>
-      <c r="AX7" s="120"/>
-      <c r="AY7" s="121"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="112"/>
+      <c r="AN7" s="112"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="112"/>
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="112"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="112"/>
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="113"/>
       <c r="AZ7" s="69"/>
     </row>
     <row r="8" spans="1:52" s="66" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="67"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="112"/>
-      <c r="AM8" s="112"/>
-      <c r="AN8" s="112"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112"/>
-      <c r="AW8" s="112"/>
-      <c r="AX8" s="112"/>
-      <c r="AY8" s="113"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="124"/>
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="124"/>
+      <c r="AY8" s="125"/>
       <c r="AZ8" s="70"/>
     </row>
     <row r="9" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67"/>
-      <c r="B9" s="93">
+      <c r="B9" s="127">
         <v>1</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96">
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130">
         <v>42604</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="115" t="s">
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="102" t="s">
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="103"/>
-      <c r="AN9" s="103"/>
-      <c r="AO9" s="103"/>
-      <c r="AP9" s="103"/>
-      <c r="AQ9" s="103"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="103"/>
-      <c r="AT9" s="103"/>
-      <c r="AU9" s="103"/>
-      <c r="AV9" s="103"/>
-      <c r="AW9" s="103"/>
-      <c r="AX9" s="103"/>
-      <c r="AY9" s="104"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="134"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="134"/>
+      <c r="AJ9" s="134"/>
+      <c r="AK9" s="134"/>
+      <c r="AL9" s="134"/>
+      <c r="AM9" s="134"/>
+      <c r="AN9" s="134"/>
+      <c r="AO9" s="134"/>
+      <c r="AP9" s="134"/>
+      <c r="AQ9" s="134"/>
+      <c r="AR9" s="134"/>
+      <c r="AS9" s="134"/>
+      <c r="AT9" s="134"/>
+      <c r="AU9" s="134"/>
+      <c r="AV9" s="134"/>
+      <c r="AW9" s="134"/>
+      <c r="AX9" s="134"/>
+      <c r="AY9" s="135"/>
       <c r="AZ9" s="70"/>
     </row>
     <row r="10" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="67"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="103"/>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="104"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="134"/>
+      <c r="AJ10" s="134"/>
+      <c r="AK10" s="134"/>
+      <c r="AL10" s="134"/>
+      <c r="AM10" s="134"/>
+      <c r="AN10" s="134"/>
+      <c r="AO10" s="134"/>
+      <c r="AP10" s="134"/>
+      <c r="AQ10" s="134"/>
+      <c r="AR10" s="134"/>
+      <c r="AS10" s="134"/>
+      <c r="AT10" s="134"/>
+      <c r="AU10" s="134"/>
+      <c r="AV10" s="134"/>
+      <c r="AW10" s="134"/>
+      <c r="AX10" s="134"/>
+      <c r="AY10" s="135"/>
       <c r="AZ10" s="70"/>
     </row>
     <row r="11" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="67"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="103"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="103"/>
-      <c r="AV11" s="103"/>
-      <c r="AW11" s="103"/>
-      <c r="AX11" s="103"/>
-      <c r="AY11" s="104"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="134"/>
+      <c r="AF11" s="134"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="134"/>
+      <c r="AJ11" s="134"/>
+      <c r="AK11" s="134"/>
+      <c r="AL11" s="134"/>
+      <c r="AM11" s="134"/>
+      <c r="AN11" s="134"/>
+      <c r="AO11" s="134"/>
+      <c r="AP11" s="134"/>
+      <c r="AQ11" s="134"/>
+      <c r="AR11" s="134"/>
+      <c r="AS11" s="134"/>
+      <c r="AT11" s="134"/>
+      <c r="AU11" s="134"/>
+      <c r="AV11" s="134"/>
+      <c r="AW11" s="134"/>
+      <c r="AX11" s="134"/>
+      <c r="AY11" s="135"/>
       <c r="AZ11" s="70"/>
     </row>
     <row r="12" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="67"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="103"/>
-      <c r="AM12" s="103"/>
-      <c r="AN12" s="103"/>
-      <c r="AO12" s="103"/>
-      <c r="AP12" s="103"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="103"/>
-      <c r="AS12" s="103"/>
-      <c r="AT12" s="103"/>
-      <c r="AU12" s="103"/>
-      <c r="AV12" s="103"/>
-      <c r="AW12" s="103"/>
-      <c r="AX12" s="103"/>
-      <c r="AY12" s="104"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="134"/>
+      <c r="AJ12" s="134"/>
+      <c r="AK12" s="134"/>
+      <c r="AL12" s="134"/>
+      <c r="AM12" s="134"/>
+      <c r="AN12" s="134"/>
+      <c r="AO12" s="134"/>
+      <c r="AP12" s="134"/>
+      <c r="AQ12" s="134"/>
+      <c r="AR12" s="134"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="134"/>
+      <c r="AU12" s="134"/>
+      <c r="AV12" s="134"/>
+      <c r="AW12" s="134"/>
+      <c r="AX12" s="134"/>
+      <c r="AY12" s="135"/>
       <c r="AZ12" s="70"/>
     </row>
     <row r="13" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="67"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="103"/>
-      <c r="AV13" s="103"/>
-      <c r="AW13" s="103"/>
-      <c r="AX13" s="103"/>
-      <c r="AY13" s="104"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="134"/>
+      <c r="AJ13" s="134"/>
+      <c r="AK13" s="134"/>
+      <c r="AL13" s="134"/>
+      <c r="AM13" s="134"/>
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="134"/>
+      <c r="AP13" s="134"/>
+      <c r="AQ13" s="134"/>
+      <c r="AR13" s="134"/>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="134"/>
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="134"/>
+      <c r="AW13" s="134"/>
+      <c r="AX13" s="134"/>
+      <c r="AY13" s="135"/>
       <c r="AZ13" s="70"/>
     </row>
     <row r="14" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="67"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="103"/>
-      <c r="AO14" s="103"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="103"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="103"/>
-      <c r="AU14" s="103"/>
-      <c r="AV14" s="103"/>
-      <c r="AW14" s="103"/>
-      <c r="AX14" s="103"/>
-      <c r="AY14" s="104"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="134"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="134"/>
+      <c r="AJ14" s="134"/>
+      <c r="AK14" s="134"/>
+      <c r="AL14" s="134"/>
+      <c r="AM14" s="134"/>
+      <c r="AN14" s="134"/>
+      <c r="AO14" s="134"/>
+      <c r="AP14" s="134"/>
+      <c r="AQ14" s="134"/>
+      <c r="AR14" s="134"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="134"/>
+      <c r="AU14" s="134"/>
+      <c r="AV14" s="134"/>
+      <c r="AW14" s="134"/>
+      <c r="AX14" s="134"/>
+      <c r="AY14" s="135"/>
       <c r="AZ14" s="70"/>
     </row>
     <row r="15" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="103"/>
-      <c r="AO15" s="103"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="103"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="103"/>
-      <c r="AT15" s="103"/>
-      <c r="AU15" s="103"/>
-      <c r="AV15" s="103"/>
-      <c r="AW15" s="103"/>
-      <c r="AX15" s="103"/>
-      <c r="AY15" s="104"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="134"/>
+      <c r="AD15" s="134"/>
+      <c r="AE15" s="134"/>
+      <c r="AF15" s="134"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="134"/>
+      <c r="AJ15" s="134"/>
+      <c r="AK15" s="134"/>
+      <c r="AL15" s="134"/>
+      <c r="AM15" s="134"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="134"/>
+      <c r="AP15" s="134"/>
+      <c r="AQ15" s="134"/>
+      <c r="AR15" s="134"/>
+      <c r="AS15" s="134"/>
+      <c r="AT15" s="134"/>
+      <c r="AU15" s="134"/>
+      <c r="AV15" s="134"/>
+      <c r="AW15" s="134"/>
+      <c r="AX15" s="134"/>
+      <c r="AY15" s="135"/>
       <c r="AZ15" s="70"/>
     </row>
     <row r="16" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="67"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="103"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="103"/>
-      <c r="AU16" s="103"/>
-      <c r="AV16" s="103"/>
-      <c r="AW16" s="103"/>
-      <c r="AX16" s="103"/>
-      <c r="AY16" s="104"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="134"/>
+      <c r="AB16" s="134"/>
+      <c r="AC16" s="134"/>
+      <c r="AD16" s="134"/>
+      <c r="AE16" s="134"/>
+      <c r="AF16" s="134"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="134"/>
+      <c r="AJ16" s="134"/>
+      <c r="AK16" s="134"/>
+      <c r="AL16" s="134"/>
+      <c r="AM16" s="134"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="134"/>
+      <c r="AP16" s="134"/>
+      <c r="AQ16" s="134"/>
+      <c r="AR16" s="134"/>
+      <c r="AS16" s="134"/>
+      <c r="AT16" s="134"/>
+      <c r="AU16" s="134"/>
+      <c r="AV16" s="134"/>
+      <c r="AW16" s="134"/>
+      <c r="AX16" s="134"/>
+      <c r="AY16" s="135"/>
       <c r="AZ16" s="70"/>
     </row>
     <row r="17" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="67"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="103"/>
-      <c r="AW17" s="103"/>
-      <c r="AX17" s="103"/>
-      <c r="AY17" s="104"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
+      <c r="Z17" s="134"/>
+      <c r="AA17" s="134"/>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="134"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="134"/>
+      <c r="AF17" s="134"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="134"/>
+      <c r="AJ17" s="134"/>
+      <c r="AK17" s="134"/>
+      <c r="AL17" s="134"/>
+      <c r="AM17" s="134"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="134"/>
+      <c r="AP17" s="134"/>
+      <c r="AQ17" s="134"/>
+      <c r="AR17" s="134"/>
+      <c r="AS17" s="134"/>
+      <c r="AT17" s="134"/>
+      <c r="AU17" s="134"/>
+      <c r="AV17" s="134"/>
+      <c r="AW17" s="134"/>
+      <c r="AX17" s="134"/>
+      <c r="AY17" s="135"/>
       <c r="AZ17" s="70"/>
     </row>
     <row r="18" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="67"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="103"/>
-      <c r="AL18" s="103"/>
-      <c r="AM18" s="103"/>
-      <c r="AN18" s="103"/>
-      <c r="AO18" s="103"/>
-      <c r="AP18" s="103"/>
-      <c r="AQ18" s="103"/>
-      <c r="AR18" s="103"/>
-      <c r="AS18" s="103"/>
-      <c r="AT18" s="103"/>
-      <c r="AU18" s="103"/>
-      <c r="AV18" s="103"/>
-      <c r="AW18" s="103"/>
-      <c r="AX18" s="103"/>
-      <c r="AY18" s="104"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="134"/>
+      <c r="Y18" s="134"/>
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="134"/>
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="134"/>
+      <c r="AF18" s="134"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="134"/>
+      <c r="AJ18" s="134"/>
+      <c r="AK18" s="134"/>
+      <c r="AL18" s="134"/>
+      <c r="AM18" s="134"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="134"/>
+      <c r="AP18" s="134"/>
+      <c r="AQ18" s="134"/>
+      <c r="AR18" s="134"/>
+      <c r="AS18" s="134"/>
+      <c r="AT18" s="134"/>
+      <c r="AU18" s="134"/>
+      <c r="AV18" s="134"/>
+      <c r="AW18" s="134"/>
+      <c r="AX18" s="134"/>
+      <c r="AY18" s="135"/>
       <c r="AZ18" s="70"/>
     </row>
     <row r="19" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="67"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="103"/>
-      <c r="AW19" s="103"/>
-      <c r="AX19" s="103"/>
-      <c r="AY19" s="104"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="134"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="134"/>
+      <c r="AJ19" s="134"/>
+      <c r="AK19" s="134"/>
+      <c r="AL19" s="134"/>
+      <c r="AM19" s="134"/>
+      <c r="AN19" s="134"/>
+      <c r="AO19" s="134"/>
+      <c r="AP19" s="134"/>
+      <c r="AQ19" s="134"/>
+      <c r="AR19" s="134"/>
+      <c r="AS19" s="134"/>
+      <c r="AT19" s="134"/>
+      <c r="AU19" s="134"/>
+      <c r="AV19" s="134"/>
+      <c r="AW19" s="134"/>
+      <c r="AX19" s="134"/>
+      <c r="AY19" s="135"/>
       <c r="AZ19" s="70"/>
     </row>
     <row r="20" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="103"/>
-      <c r="AO20" s="103"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="103"/>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="103"/>
-      <c r="AT20" s="103"/>
-      <c r="AU20" s="103"/>
-      <c r="AV20" s="103"/>
-      <c r="AW20" s="103"/>
-      <c r="AX20" s="103"/>
-      <c r="AY20" s="104"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="134"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="134"/>
+      <c r="AJ20" s="134"/>
+      <c r="AK20" s="134"/>
+      <c r="AL20" s="134"/>
+      <c r="AM20" s="134"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="134"/>
+      <c r="AP20" s="134"/>
+      <c r="AQ20" s="134"/>
+      <c r="AR20" s="134"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="134"/>
+      <c r="AU20" s="134"/>
+      <c r="AV20" s="134"/>
+      <c r="AW20" s="134"/>
+      <c r="AX20" s="134"/>
+      <c r="AY20" s="135"/>
       <c r="AZ20" s="70"/>
     </row>
     <row r="21" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="67"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="103"/>
-      <c r="AW21" s="103"/>
-      <c r="AX21" s="103"/>
-      <c r="AY21" s="104"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="134"/>
+      <c r="Y21" s="134"/>
+      <c r="Z21" s="134"/>
+      <c r="AA21" s="134"/>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="134"/>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="134"/>
+      <c r="AF21" s="134"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="134"/>
+      <c r="AJ21" s="134"/>
+      <c r="AK21" s="134"/>
+      <c r="AL21" s="134"/>
+      <c r="AM21" s="134"/>
+      <c r="AN21" s="134"/>
+      <c r="AO21" s="134"/>
+      <c r="AP21" s="134"/>
+      <c r="AQ21" s="134"/>
+      <c r="AR21" s="134"/>
+      <c r="AS21" s="134"/>
+      <c r="AT21" s="134"/>
+      <c r="AU21" s="134"/>
+      <c r="AV21" s="134"/>
+      <c r="AW21" s="134"/>
+      <c r="AX21" s="134"/>
+      <c r="AY21" s="135"/>
       <c r="AZ21" s="70"/>
     </row>
     <row r="22" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="67"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103"/>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="103"/>
-      <c r="AU22" s="103"/>
-      <c r="AV22" s="103"/>
-      <c r="AW22" s="103"/>
-      <c r="AX22" s="103"/>
-      <c r="AY22" s="104"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="134"/>
+      <c r="AB22" s="134"/>
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="134"/>
+      <c r="AJ22" s="134"/>
+      <c r="AK22" s="134"/>
+      <c r="AL22" s="134"/>
+      <c r="AM22" s="134"/>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="134"/>
+      <c r="AP22" s="134"/>
+      <c r="AQ22" s="134"/>
+      <c r="AR22" s="134"/>
+      <c r="AS22" s="134"/>
+      <c r="AT22" s="134"/>
+      <c r="AU22" s="134"/>
+      <c r="AV22" s="134"/>
+      <c r="AW22" s="134"/>
+      <c r="AX22" s="134"/>
+      <c r="AY22" s="135"/>
       <c r="AZ22" s="70"/>
     </row>
     <row r="23" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="67"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="103"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="103"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="103"/>
-      <c r="AO23" s="103"/>
-      <c r="AP23" s="103"/>
-      <c r="AQ23" s="103"/>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="103"/>
-      <c r="AT23" s="103"/>
-      <c r="AU23" s="103"/>
-      <c r="AV23" s="103"/>
-      <c r="AW23" s="103"/>
-      <c r="AX23" s="103"/>
-      <c r="AY23" s="104"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="134"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="134"/>
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="134"/>
+      <c r="AB23" s="134"/>
+      <c r="AC23" s="134"/>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="134"/>
+      <c r="AF23" s="134"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="134"/>
+      <c r="AJ23" s="134"/>
+      <c r="AK23" s="134"/>
+      <c r="AL23" s="134"/>
+      <c r="AM23" s="134"/>
+      <c r="AN23" s="134"/>
+      <c r="AO23" s="134"/>
+      <c r="AP23" s="134"/>
+      <c r="AQ23" s="134"/>
+      <c r="AR23" s="134"/>
+      <c r="AS23" s="134"/>
+      <c r="AT23" s="134"/>
+      <c r="AU23" s="134"/>
+      <c r="AV23" s="134"/>
+      <c r="AW23" s="134"/>
+      <c r="AX23" s="134"/>
+      <c r="AY23" s="135"/>
       <c r="AZ23" s="70"/>
     </row>
     <row r="24" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="67"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="103"/>
-      <c r="AL24" s="103"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="103"/>
-      <c r="AO24" s="103"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="103"/>
-      <c r="AT24" s="103"/>
-      <c r="AU24" s="103"/>
-      <c r="AV24" s="103"/>
-      <c r="AW24" s="103"/>
-      <c r="AX24" s="103"/>
-      <c r="AY24" s="104"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="134"/>
+      <c r="AJ24" s="134"/>
+      <c r="AK24" s="134"/>
+      <c r="AL24" s="134"/>
+      <c r="AM24" s="134"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="134"/>
+      <c r="AP24" s="134"/>
+      <c r="AQ24" s="134"/>
+      <c r="AR24" s="134"/>
+      <c r="AS24" s="134"/>
+      <c r="AT24" s="134"/>
+      <c r="AU24" s="134"/>
+      <c r="AV24" s="134"/>
+      <c r="AW24" s="134"/>
+      <c r="AX24" s="134"/>
+      <c r="AY24" s="135"/>
       <c r="AZ24" s="70"/>
     </row>
     <row r="25" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="67"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="103"/>
-      <c r="AG25" s="103"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="103"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="103"/>
-      <c r="AL25" s="103"/>
-      <c r="AM25" s="103"/>
-      <c r="AN25" s="103"/>
-      <c r="AO25" s="103"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="103"/>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="103"/>
-      <c r="AT25" s="103"/>
-      <c r="AU25" s="103"/>
-      <c r="AV25" s="103"/>
-      <c r="AW25" s="103"/>
-      <c r="AX25" s="103"/>
-      <c r="AY25" s="104"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="134"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="134"/>
+      <c r="AJ25" s="134"/>
+      <c r="AK25" s="134"/>
+      <c r="AL25" s="134"/>
+      <c r="AM25" s="134"/>
+      <c r="AN25" s="134"/>
+      <c r="AO25" s="134"/>
+      <c r="AP25" s="134"/>
+      <c r="AQ25" s="134"/>
+      <c r="AR25" s="134"/>
+      <c r="AS25" s="134"/>
+      <c r="AT25" s="134"/>
+      <c r="AU25" s="134"/>
+      <c r="AV25" s="134"/>
+      <c r="AW25" s="134"/>
+      <c r="AX25" s="134"/>
+      <c r="AY25" s="135"/>
       <c r="AZ25" s="70"/>
     </row>
     <row r="26" spans="1:52" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="67"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="91"/>
-      <c r="AC26" s="91"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="91"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="91"/>
-      <c r="AJ26" s="91"/>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="91"/>
-      <c r="AN26" s="91"/>
-      <c r="AO26" s="91"/>
-      <c r="AP26" s="91"/>
-      <c r="AQ26" s="91"/>
-      <c r="AR26" s="91"/>
-      <c r="AS26" s="91"/>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="91"/>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="91"/>
-      <c r="AY26" s="92"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="150"/>
+      <c r="S26" s="150"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="150"/>
+      <c r="AA26" s="150"/>
+      <c r="AB26" s="150"/>
+      <c r="AC26" s="150"/>
+      <c r="AD26" s="150"/>
+      <c r="AE26" s="150"/>
+      <c r="AF26" s="150"/>
+      <c r="AG26" s="150"/>
+      <c r="AH26" s="150"/>
+      <c r="AI26" s="150"/>
+      <c r="AJ26" s="150"/>
+      <c r="AK26" s="150"/>
+      <c r="AL26" s="150"/>
+      <c r="AM26" s="150"/>
+      <c r="AN26" s="150"/>
+      <c r="AO26" s="150"/>
+      <c r="AP26" s="150"/>
+      <c r="AQ26" s="150"/>
+      <c r="AR26" s="150"/>
+      <c r="AS26" s="150"/>
+      <c r="AT26" s="150"/>
+      <c r="AU26" s="150"/>
+      <c r="AV26" s="150"/>
+      <c r="AW26" s="150"/>
+      <c r="AX26" s="150"/>
+      <c r="AY26" s="151"/>
       <c r="AZ26" s="71"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3840,91 +3838,6 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="K26:P26"/>
@@ -3937,6 +3850,91 @@
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="K25:P25"/>
     <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -4074,33 +4072,33 @@
       <c r="K3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="141"/>
-      <c r="M3" s="142" t="s">
+      <c r="L3" s="81"/>
+      <c r="M3" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="142" t="s">
+      <c r="N3" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="142" t="s">
+      <c r="O3" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="143" t="s">
+      <c r="P3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="141" t="s">
+      <c r="Q3" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="142" t="s">
+      <c r="R3" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
       <c r="AA3" s="21"/>
       <c r="AB3" s="37" t="s">
         <v>56</v>
@@ -4222,22 +4220,22 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="149"/>
-      <c r="Z6" s="149"/>
-      <c r="AA6" s="149"/>
-      <c r="AB6" s="151"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="91"/>
       <c r="AD6" s="7" t="s">
         <v>9</v>
       </c>
@@ -4264,22 +4262,22 @@
         <v>3</v>
       </c>
       <c r="G7" s="17">
-        <f>COUNTIF($M7:$AB7,"*C*")</f>
+        <f t="shared" ref="G7:G27" si="0">COUNTIF($M7:$AB7,"*C*")</f>
         <v>0</v>
       </c>
       <c r="H7" s="17">
-        <f>COUNTIF($M7:$AB7,"*R*")</f>
+        <f t="shared" ref="H7:H27" si="1">COUNTIF($M7:$AB7,"*R*")</f>
         <v>3</v>
       </c>
       <c r="I7" s="17">
-        <f>COUNTIF($M7:$AB7,"*U*")</f>
+        <f t="shared" ref="I7:I27" si="2">COUNTIF($M7:$AB7,"*U*")</f>
         <v>0</v>
       </c>
       <c r="J7" s="17">
-        <f>COUNTIF($M7:$AB7,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="145"/>
+        <f t="shared" ref="J7:J27" si="3">COUNTIF($M7:$AB7,"*D*")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="85"/>
       <c r="M7" s="23"/>
       <c r="N7" s="24" t="s">
         <v>48</v>
@@ -4301,7 +4299,7 @@
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
-      <c r="AB7" s="144" t="s">
+      <c r="AB7" s="84" t="s">
         <v>57</v>
       </c>
       <c r="AD7" s="7" t="s">
@@ -4326,26 +4324,26 @@
         <v>26</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" ref="F8:F27" si="0">SUM(G8:J8)</f>
+        <f t="shared" ref="F8:F27" si="4">SUM(G8:J8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="17">
-        <f>COUNTIF($M8:$AB8,"*C*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="17">
-        <f>COUNTIF($M8:$AB8,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="17">
-        <f>COUNTIF($M8:$AB8,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" s="17">
-        <f>COUNTIF($M8:$AB8,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="146"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="86"/>
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
@@ -4386,26 +4384,26 @@
         <v>27</v>
       </c>
       <c r="F9" s="17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G9" s="17">
-        <f>COUNTIF($M9:$AB9,"*C*")</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <f>COUNTIF($M9:$AB9,"*R*")</f>
-        <v>4</v>
-      </c>
       <c r="I9" s="17">
-        <f>COUNTIF($M9:$AB9,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="17">
-        <f>COUNTIF($M9:$AB9,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="85"/>
       <c r="M9" s="27" t="s">
         <v>49</v>
       </c>
@@ -4454,26 +4452,26 @@
         <v>28</v>
       </c>
       <c r="F10" s="17">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G10" s="17">
-        <f>COUNTIF($M10:$AB10,"*C*")</f>
         <v>2</v>
       </c>
       <c r="H10" s="17">
-        <f>COUNTIF($M10:$AB10,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="17">
-        <f>COUNTIF($M10:$AB10,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J10" s="17">
-        <f>COUNTIF($M10:$AB10,"*D*")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L10" s="145"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="27" t="s">
         <v>49</v>
       </c>
@@ -4520,26 +4518,26 @@
         <v>29</v>
       </c>
       <c r="F11" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G11" s="17">
-        <f>COUNTIF($M11:$AB11,"*C*")</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <f>COUNTIF($M11:$AB11,"*R*")</f>
-        <v>1</v>
-      </c>
       <c r="I11" s="17">
-        <f>COUNTIF($M11:$AB11,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="17">
-        <f>COUNTIF($M11:$AB11,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="85"/>
       <c r="M11" s="27"/>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
@@ -4582,26 +4580,26 @@
         <v>30</v>
       </c>
       <c r="F12" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="17">
-        <f>COUNTIF($M12:$AB12,"*C*")</f>
-        <v>1</v>
-      </c>
       <c r="H12" s="17">
-        <f>COUNTIF($M12:$AB12,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="17">
-        <f>COUNTIF($M12:$AB12,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="17">
-        <f>COUNTIF($M12:$AB12,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="85"/>
       <c r="M12" s="27"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
@@ -4644,26 +4642,26 @@
         <v>31</v>
       </c>
       <c r="F13" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G13" s="17">
-        <f>COUNTIF($M13:$AB13,"*C*")</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <f>COUNTIF($M13:$AB13,"*R*")</f>
-        <v>1</v>
-      </c>
       <c r="I13" s="17">
-        <f>COUNTIF($M13:$AB13,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="17">
-        <f>COUNTIF($M13:$AB13,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="85"/>
       <c r="M13" s="27"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
@@ -4706,26 +4704,26 @@
         <v>32</v>
       </c>
       <c r="F14" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G14" s="17">
-        <f>COUNTIF($M14:$AB14,"*C*")</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <f>COUNTIF($M14:$AB14,"*R*")</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <f>COUNTIF($M14:$AB14,"*U*")</f>
-        <v>1</v>
-      </c>
       <c r="J14" s="17">
-        <f>COUNTIF($M14:$AB14,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="85"/>
       <c r="M14" s="27"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
@@ -4768,26 +4766,26 @@
         <v>33</v>
       </c>
       <c r="F15" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G15" s="17">
-        <f>COUNTIF($M15:$AB15,"*C*")</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
-        <f>COUNTIF($M15:$AB15,"*R*")</f>
-        <v>1</v>
-      </c>
       <c r="I15" s="17">
-        <f>COUNTIF($M15:$AB15,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="17">
-        <f>COUNTIF($M15:$AB15,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="85"/>
       <c r="M15" s="27"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
@@ -4830,26 +4828,26 @@
         <v>54</v>
       </c>
       <c r="F16" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="17">
-        <f>COUNTIF($M16:$AB16,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H16" s="17">
-        <f>COUNTIF($M16:$AB16,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="17">
-        <f>COUNTIF($M16:$AB16,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="17">
-        <f>COUNTIF($M16:$AB16,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="85"/>
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
@@ -4882,26 +4880,26 @@
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="17">
-        <f>COUNTIF($M17:$AB17,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H17" s="17">
-        <f>COUNTIF($M17:$AB17,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="17">
-        <f>COUNTIF($M17:$AB17,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="17">
-        <f>COUNTIF($M17:$AB17,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="85"/>
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
@@ -4934,26 +4932,26 @@
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="17">
-        <f>COUNTIF($M18:$AB18,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H18" s="17">
-        <f>COUNTIF($M18:$AB18,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="17">
-        <f>COUNTIF($M18:$AB18,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="17">
-        <f>COUNTIF($M18:$AB18,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="85"/>
       <c r="M18" s="27"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
@@ -4986,26 +4984,26 @@
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
       <c r="F19" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="17">
-        <f>COUNTIF($M19:$AB19,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H19" s="17">
-        <f>COUNTIF($M19:$AB19,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="17">
-        <f>COUNTIF($M19:$AB19,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="17">
-        <f>COUNTIF($M19:$AB19,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="85"/>
       <c r="M19" s="27"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
@@ -5038,26 +5036,26 @@
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="17">
-        <f>COUNTIF($M20:$AB20,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H20" s="17">
-        <f>COUNTIF($M20:$AB20,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="17">
-        <f>COUNTIF($M20:$AB20,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="17">
-        <f>COUNTIF($M20:$AB20,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="85"/>
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
@@ -5090,26 +5088,26 @@
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="17">
-        <f>COUNTIF($M21:$AB21,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H21" s="17">
-        <f>COUNTIF($M21:$AB21,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="17">
-        <f>COUNTIF($M21:$AB21,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="17">
-        <f>COUNTIF($M21:$AB21,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="85"/>
       <c r="M21" s="27"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
@@ -5142,26 +5140,26 @@
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="17">
-        <f>COUNTIF($M22:$AB22,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H22" s="17">
-        <f>COUNTIF($M22:$AB22,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="17">
-        <f>COUNTIF($M22:$AB22,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="17">
-        <f>COUNTIF($M22:$AB22,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="85"/>
       <c r="M22" s="27"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
@@ -5194,26 +5192,26 @@
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
       <c r="F23" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="17">
-        <f>COUNTIF($M23:$AB23,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H23" s="17">
-        <f>COUNTIF($M23:$AB23,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="17">
-        <f>COUNTIF($M23:$AB23,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J23" s="17">
-        <f>COUNTIF($M23:$AB23,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="85"/>
       <c r="M23" s="27"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
@@ -5246,26 +5244,26 @@
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
       <c r="F24" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="17">
-        <f>COUNTIF($M24:$AB24,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H24" s="17">
-        <f>COUNTIF($M24:$AB24,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="17">
-        <f>COUNTIF($M24:$AB24,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="17">
-        <f>COUNTIF($M24:$AB24,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="85"/>
       <c r="M24" s="27"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
@@ -5298,26 +5296,26 @@
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
       <c r="F25" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="17">
-        <f>COUNTIF($M25:$AB25,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H25" s="17">
-        <f>COUNTIF($M25:$AB25,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="17">
-        <f>COUNTIF($M25:$AB25,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="17">
-        <f>COUNTIF($M25:$AB25,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="85"/>
       <c r="M25" s="27"/>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
@@ -5350,26 +5348,26 @@
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
       <c r="F26" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="17">
-        <f>COUNTIF($M26:$AB26,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H26" s="17">
-        <f>COUNTIF($M26:$AB26,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="17">
-        <f>COUNTIF($M26:$AB26,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26" s="17">
-        <f>COUNTIF($M26:$AB26,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="85"/>
       <c r="M26" s="27"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
@@ -5399,26 +5397,26 @@
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
       <c r="F27" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="17">
-        <f>COUNTIF($M27:$AB27,"*C*")</f>
-        <v>0</v>
-      </c>
       <c r="H27" s="17">
-        <f>COUNTIF($M27:$AB27,"*R*")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="17">
-        <f>COUNTIF($M27:$AB27,"*U*")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="17">
-        <f>COUNTIF($M27:$AB27,"*D*")</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="145"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="85"/>
       <c r="M27" s="27"/>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
@@ -5471,7 +5469,7 @@
         <v>35</v>
       </c>
       <c r="K28" s="44"/>
-      <c r="L28" s="147"/>
+      <c r="L28" s="87"/>
       <c r="M28" s="30" t="s">
         <v>35</v>
       </c>
@@ -5649,12 +5647,13 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="F6:J27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
